--- a/Portal_Data_Latest.xlsx
+++ b/Portal_Data_Latest.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView/>
+    <workbookView activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>

--- a/Portal_Data_Latest.xlsx
+++ b/Portal_Data_Latest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="5182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="5184">
   <si>
     <t>HQ Country</t>
   </si>
@@ -15569,6 +15569,12 @@
   </si>
   <si>
     <t>* DISOLVED ?</t>
+  </si>
+  <si>
+    <t>ROC TECHNOLOGIES LTD</t>
+  </si>
+  <si>
+    <t>Reached out on LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -15620,7 +15626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AT717"/>
+  <dimension ref="A1:AT718"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -75722,6 +75728,20 @@
         <v>5181</v>
       </c>
     </row>
+    <row r="718">
+      <c r="E718" s="0" t="s">
+        <v>5182</v>
+      </c>
+      <c r="F718" s="0" t="s">
+        <v>5182</v>
+      </c>
+      <c r="H718" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I718" s="0" t="s">
+        <v>5183</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
